--- a/biology/Virologie/Margaret_T._May/Margaret_T._May.xlsx
+++ b/biology/Virologie/Margaret_T._May/Margaret_T._May.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Margaret Tallmadge May est une virologue britannique, professeure de statistique médicale à l'Université de Bristol. Elle est spécialisée dans la modélisation pronostique et l'épidémiologie du VIH[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Margaret Tallmadge May est une virologue britannique, professeure de statistique médicale à l'Université de Bristol. Elle est spécialisée dans la modélisation pronostique et l'épidémiologie du VIH.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">May est titulaire d'une maîtrise de l'Université de Cambridge, ainsi que d'une maîtrise et d'un doctorat de l'Université de Bristol[2].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">May est titulaire d'une maîtrise de l'Université de Cambridge, ainsi que d'une maîtrise et d'un doctorat de l'Université de Bristol.  
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle reçoit en 1969 le prix Pfizer, pour son livre Galen on the Usefulness of the Parts of the Body (Ithaca. N.Y.: Cornell University Press, 1968)[3],[4],[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle reçoit en 1969 le prix Pfizer, pour son livre Galen on the Usefulness of the Parts of the Body (Ithaca. N.Y.: Cornell University Press, 1968).
 Articles médicaux
 </t>
         </is>
